--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H2">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I2">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J2">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N2">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O2">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P2">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q2">
-        <v>20.80420925136665</v>
+        <v>23.74704037331325</v>
       </c>
       <c r="R2">
-        <v>20.80420925136665</v>
+        <v>94.988161493253</v>
       </c>
       <c r="S2">
-        <v>0.01093384976854184</v>
+        <v>0.01163428975648187</v>
       </c>
       <c r="T2">
-        <v>0.01093384976854184</v>
+        <v>0.007060137415013542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H3">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I3">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J3">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N3">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P3">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q3">
-        <v>45.15730331276082</v>
+        <v>48.385416289413</v>
       </c>
       <c r="R3">
-        <v>45.15730331276082</v>
+        <v>290.312497736478</v>
       </c>
       <c r="S3">
-        <v>0.02373284965597859</v>
+        <v>0.02370526786704944</v>
       </c>
       <c r="T3">
-        <v>0.02373284965597859</v>
+        <v>0.02157791134278274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H4">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I4">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J4">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N4">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O4">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P4">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q4">
-        <v>94.3573635762563</v>
+        <v>98.66827289118702</v>
       </c>
       <c r="R4">
-        <v>94.3573635762563</v>
+        <v>592.0096373471221</v>
       </c>
       <c r="S4">
-        <v>0.04959040862515337</v>
+        <v>0.04834014085720491</v>
       </c>
       <c r="T4">
-        <v>0.04959040862515337</v>
+        <v>0.04400200324942488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H5">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I5">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J5">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N5">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O5">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P5">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q5">
-        <v>109.309810807046</v>
+        <v>113.1716284121985</v>
       </c>
       <c r="R5">
-        <v>109.309810807046</v>
+        <v>679.029770473191</v>
       </c>
       <c r="S5">
-        <v>0.05744880928427787</v>
+        <v>0.05544571013742323</v>
       </c>
       <c r="T5">
-        <v>0.05744880928427787</v>
+        <v>0.05046990501828329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H6">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I6">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J6">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N6">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O6">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P6">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q6">
-        <v>13.53618354982015</v>
+        <v>14.1487583167855</v>
       </c>
       <c r="R6">
-        <v>13.53618354982015</v>
+        <v>84.89254990071301</v>
       </c>
       <c r="S6">
-        <v>0.007114069830047419</v>
+        <v>0.006931842931336552</v>
       </c>
       <c r="T6">
-        <v>0.007114069830047419</v>
+        <v>0.006309765958071522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H7">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I7">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J7">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N7">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O7">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P7">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q7">
-        <v>40.0479775128901</v>
+        <v>40.97828274831225</v>
       </c>
       <c r="R7">
-        <v>40.0479775128901</v>
+        <v>163.913130993249</v>
       </c>
       <c r="S7">
-        <v>0.02104759495394508</v>
+        <v>0.02007632141614913</v>
       </c>
       <c r="T7">
-        <v>0.02104759495394508</v>
+        <v>0.01218308903704439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H8">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I8">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J8">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N8">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O8">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P8">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q8">
-        <v>34.59067628890595</v>
+        <v>42.13692615413751</v>
       </c>
       <c r="R8">
-        <v>34.59067628890595</v>
+        <v>252.821556924825</v>
       </c>
       <c r="S8">
-        <v>0.01817945846272984</v>
+        <v>0.02064397081143784</v>
       </c>
       <c r="T8">
-        <v>0.01817945846272984</v>
+        <v>0.01879134099772757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H9">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I9">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J9">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N9">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P9">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q9">
-        <v>75.08200105558153</v>
+        <v>85.85544476588333</v>
       </c>
       <c r="R9">
-        <v>75.08200105558153</v>
+        <v>772.69900289295</v>
       </c>
       <c r="S9">
-        <v>0.03946005877677375</v>
+        <v>0.04206280470641009</v>
       </c>
       <c r="T9">
-        <v>0.03946005877677375</v>
+        <v>0.05743201105387924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H10">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I10">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J10">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N10">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O10">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P10">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q10">
-        <v>156.8858003447777</v>
+        <v>175.0777218218945</v>
       </c>
       <c r="R10">
-        <v>156.8858003447777</v>
+        <v>1575.69949639705</v>
       </c>
       <c r="S10">
-        <v>0.08245282245825158</v>
+        <v>0.08577510770014554</v>
       </c>
       <c r="T10">
-        <v>0.08245282245825158</v>
+        <v>0.1171162257953691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H11">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I11">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J11">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N11">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O11">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P11">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q11">
-        <v>181.7468876198549</v>
+        <v>200.8125843971417</v>
       </c>
       <c r="R11">
-        <v>181.7468876198549</v>
+        <v>1807.313259574275</v>
       </c>
       <c r="S11">
-        <v>0.09551880300401273</v>
+        <v>0.09838328300691508</v>
       </c>
       <c r="T11">
-        <v>0.09551880300401273</v>
+        <v>0.1343312657491192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H12">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I12">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J12">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N12">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O12">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P12">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q12">
-        <v>22.50629849477621</v>
+        <v>25.10566264236945</v>
       </c>
       <c r="R12">
-        <v>22.50629849477621</v>
+        <v>225.950963781325</v>
       </c>
       <c r="S12">
-        <v>0.01182839893670446</v>
+        <v>0.01229991397319781</v>
       </c>
       <c r="T12">
-        <v>0.01182839893670446</v>
+        <v>0.01679414390459818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H13">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I13">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J13">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N13">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O13">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P13">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q13">
-        <v>66.58684352940573</v>
+        <v>72.7121715777875</v>
       </c>
       <c r="R13">
-        <v>66.58684352940573</v>
+        <v>436.273029466725</v>
       </c>
       <c r="S13">
-        <v>0.03499534805265901</v>
+        <v>0.03562357496598534</v>
       </c>
       <c r="T13">
-        <v>0.03499534805265901</v>
+        <v>0.0324266465428759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H14">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I14">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J14">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N14">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O14">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P14">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q14">
-        <v>5.368596715748325</v>
+        <v>0.33006293761</v>
       </c>
       <c r="R14">
-        <v>5.368596715748325</v>
+        <v>1.98037762566</v>
       </c>
       <c r="S14">
-        <v>0.002821516994404547</v>
+        <v>0.0001617063766121252</v>
       </c>
       <c r="T14">
-        <v>0.002821516994404547</v>
+        <v>0.0001471945340448659</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H15">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I15">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J15">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N15">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P15">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q15">
-        <v>11.65299518610702</v>
+        <v>0.6725146539066666</v>
       </c>
       <c r="R15">
-        <v>11.65299518610702</v>
+        <v>6.052631885159999</v>
       </c>
       <c r="S15">
-        <v>0.006124342299146294</v>
+        <v>0.000329482336578797</v>
       </c>
       <c r="T15">
-        <v>0.006124342299146294</v>
+        <v>0.0004498709329662869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H16">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I16">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J16">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N16">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O16">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P16">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q16">
-        <v>24.34923750677442</v>
+        <v>1.371402056315556</v>
       </c>
       <c r="R16">
-        <v>24.34923750677442</v>
+        <v>12.34261850684</v>
       </c>
       <c r="S16">
-        <v>0.01279697303852713</v>
+        <v>0.0006718853652912752</v>
       </c>
       <c r="T16">
-        <v>0.01279697303852713</v>
+        <v>0.000917383612331198</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H17">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I17">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J17">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N17">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O17">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P17">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q17">
-        <v>28.20776719784375</v>
+        <v>1.572985919113333</v>
       </c>
       <c r="R17">
-        <v>28.20776719784375</v>
+        <v>14.15687327202</v>
       </c>
       <c r="S17">
-        <v>0.01482485996563247</v>
+        <v>0.0007706465175507309</v>
       </c>
       <c r="T17">
-        <v>0.01482485996563247</v>
+        <v>0.001052230815884282</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H18">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I18">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J18">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N18">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O18">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P18">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q18">
-        <v>3.493058047594727</v>
+        <v>0.1966552740955556</v>
       </c>
       <c r="R18">
-        <v>3.493058047594727</v>
+        <v>1.76989746686</v>
       </c>
       <c r="S18">
-        <v>0.001835809833660845</v>
+        <v>9.634650908073709E-05</v>
       </c>
       <c r="T18">
-        <v>0.001835809833660845</v>
+        <v>0.0001315502808989891</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H19">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I19">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J19">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N19">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O19">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P19">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q19">
-        <v>10.33451634476042</v>
+        <v>0.56956202413</v>
       </c>
       <c r="R19">
-        <v>10.33451634476042</v>
+        <v>3.41737214478</v>
       </c>
       <c r="S19">
-        <v>0.005431403221284546</v>
+        <v>0.0002790431783854417</v>
       </c>
       <c r="T19">
-        <v>0.005431403221284546</v>
+        <v>0.0002540013045952057</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H20">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I20">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J20">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N20">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O20">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P20">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q20">
-        <v>61.70961703682509</v>
+        <v>7.057639047154501</v>
       </c>
       <c r="R20">
-        <v>61.70961703682509</v>
+        <v>42.34583428292701</v>
       </c>
       <c r="S20">
-        <v>0.0324320753460299</v>
+        <v>0.00345772005186513</v>
       </c>
       <c r="T20">
-        <v>0.0324320753460299</v>
+        <v>0.003147417575948048</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H21">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I21">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J21">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N21">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P21">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q21">
-        <v>133.9459654619253</v>
+        <v>14.380183717578</v>
       </c>
       <c r="R21">
-        <v>133.9459654619253</v>
+        <v>129.421653458202</v>
       </c>
       <c r="S21">
-        <v>0.07039657435510449</v>
+        <v>0.007045224225489554</v>
       </c>
       <c r="T21">
-        <v>0.07039657435510449</v>
+        <v>0.009619458293842977</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H22">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I22">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J22">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N22">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O22">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P22">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q22">
-        <v>279.8835899284537</v>
+        <v>29.32428818602201</v>
       </c>
       <c r="R22">
-        <v>279.8835899284537</v>
+        <v>263.918593674198</v>
       </c>
       <c r="S22">
-        <v>0.147095478995764</v>
+        <v>0.01436672782357162</v>
       </c>
       <c r="T22">
-        <v>0.147095478995764</v>
+        <v>0.01961614487979443</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H23">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I23">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J23">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N23">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O23">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P23">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q23">
-        <v>324.2356622051134</v>
+        <v>33.634696836141</v>
       </c>
       <c r="R23">
-        <v>324.2356622051134</v>
+        <v>302.712271525269</v>
       </c>
       <c r="S23">
-        <v>0.1704051318327086</v>
+        <v>0.01647850859355282</v>
       </c>
       <c r="T23">
-        <v>0.1704051318327086</v>
+        <v>0.02249954310707545</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H24">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I24">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J24">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N24">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O24">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P24">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q24">
-        <v>40.15113926739132</v>
+        <v>4.205022082563</v>
       </c>
       <c r="R24">
-        <v>40.15113926739132</v>
+        <v>37.84519874306701</v>
       </c>
       <c r="S24">
-        <v>0.02110181259384415</v>
+        <v>0.002060149162668769</v>
       </c>
       <c r="T24">
-        <v>0.02110181259384415</v>
+        <v>0.00281290109655959</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4702770000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.410831</v>
+      </c>
+      <c r="I25">
+        <v>0.04937502834767095</v>
+      </c>
+      <c r="J25">
+        <v>0.06312670039673911</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.8970305</v>
+      </c>
+      <c r="N25">
+        <v>51.794061</v>
+      </c>
+      <c r="O25">
+        <v>0.1208444570099069</v>
+      </c>
+      <c r="P25">
+        <v>0.0860370557843885</v>
+      </c>
+      <c r="Q25">
+        <v>12.1787778124485</v>
+      </c>
+      <c r="R25">
+        <v>73.07266687469101</v>
+      </c>
+      <c r="S25">
+        <v>0.005966698490523055</v>
+      </c>
+      <c r="T25">
+        <v>0.005431235443518622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.6422255</v>
+      </c>
+      <c r="H26">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J26">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.0074085</v>
+      </c>
+      <c r="N26">
+        <v>30.014817</v>
+      </c>
+      <c r="O26">
+        <v>0.07002973299615803</v>
+      </c>
+      <c r="P26">
+        <v>0.04985873736734435</v>
+      </c>
+      <c r="Q26">
+        <v>69.66777442761676</v>
+      </c>
+      <c r="R26">
+        <v>278.6710977104671</v>
+      </c>
+      <c r="S26">
+        <v>0.03413204599976106</v>
+      </c>
+      <c r="T26">
+        <v>0.02071264684461032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.6422255</v>
+      </c>
+      <c r="H27">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J27">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>30.578114</v>
+      </c>
+      <c r="N27">
+        <v>91.734342</v>
+      </c>
+      <c r="O27">
+        <v>0.1426880036580654</v>
+      </c>
+      <c r="P27">
+        <v>0.1523833533732405</v>
+      </c>
+      <c r="Q27">
+        <v>141.950500552707</v>
+      </c>
+      <c r="R27">
+        <v>851.7030033162421</v>
+      </c>
+      <c r="S27">
+        <v>0.06954522452253749</v>
+      </c>
+      <c r="T27">
+        <v>0.06330410174976926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.6422255</v>
+      </c>
+      <c r="H28">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J28">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>62.35535266666667</v>
+      </c>
+      <c r="N28">
+        <v>187.066058</v>
+      </c>
+      <c r="O28">
+        <v>0.2909715357003801</v>
+      </c>
+      <c r="P28">
+        <v>0.3107424395146705</v>
+      </c>
+      <c r="Q28">
+        <v>289.467608210693</v>
+      </c>
+      <c r="R28">
+        <v>1736.805649264158</v>
+      </c>
+      <c r="S28">
+        <v>0.1418176739541667</v>
+      </c>
+      <c r="T28">
+        <v>0.1290906819777509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.6422255</v>
+      </c>
+      <c r="H29">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J29">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>71.521033</v>
+      </c>
+      <c r="N29">
+        <v>214.563099</v>
+      </c>
+      <c r="O29">
+        <v>0.3337417545873698</v>
+      </c>
+      <c r="P29">
+        <v>0.3564188048111206</v>
+      </c>
+      <c r="Q29">
+        <v>332.0167631789415</v>
+      </c>
+      <c r="R29">
+        <v>1992.100579073649</v>
+      </c>
+      <c r="S29">
+        <v>0.1626636063319279</v>
+      </c>
+      <c r="T29">
+        <v>0.1480658601207584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.60861637058564</v>
-      </c>
-      <c r="H25">
-        <v>4.60861637058564</v>
-      </c>
-      <c r="I25">
-        <v>0.5038626228382687</v>
-      </c>
-      <c r="J25">
-        <v>0.5038626228382687</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.7757712054458</v>
-      </c>
-      <c r="N25">
-        <v>25.7757712054458</v>
-      </c>
-      <c r="O25">
-        <v>0.1239058959427061</v>
-      </c>
-      <c r="P25">
-        <v>0.1239058959427061</v>
-      </c>
-      <c r="Q25">
-        <v>118.7906411418875</v>
-      </c>
-      <c r="R25">
-        <v>118.7906411418875</v>
-      </c>
-      <c r="S25">
-        <v>0.0624315497148175</v>
-      </c>
-      <c r="T25">
-        <v>0.0624315497148175</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.6422255</v>
+      </c>
+      <c r="H30">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J30">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.941585666666667</v>
+      </c>
+      <c r="N30">
+        <v>26.824757</v>
+      </c>
+      <c r="O30">
+        <v>0.04172451604811986</v>
+      </c>
+      <c r="P30">
+        <v>0.04455960914923559</v>
+      </c>
+      <c r="Q30">
+        <v>41.50885699223451</v>
+      </c>
+      <c r="R30">
+        <v>249.053141953407</v>
+      </c>
+      <c r="S30">
+        <v>0.02033626347183598</v>
+      </c>
+      <c r="T30">
+        <v>0.01851124790910732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.6422255</v>
+      </c>
+      <c r="H31">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J31">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.8970305</v>
+      </c>
+      <c r="N31">
+        <v>51.794061</v>
+      </c>
+      <c r="O31">
+        <v>0.1208444570099069</v>
+      </c>
+      <c r="P31">
+        <v>0.0860370557843885</v>
+      </c>
+      <c r="Q31">
+        <v>120.2198553613778</v>
+      </c>
+      <c r="R31">
+        <v>480.879421445511</v>
+      </c>
+      <c r="S31">
+        <v>0.05889881895886389</v>
+      </c>
+      <c r="T31">
+        <v>0.03574208345635439</v>
       </c>
     </row>
   </sheetData>
